--- a/MacBook_Oracle_database_11g.xlsx
+++ b/MacBook_Oracle_database_11g.xlsx
@@ -38,19 +38,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Docker.dmg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>安裝 Docker Desktop</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>使用終端機</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>jdk-8u241-macosx-x64.dmg</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -520,6 +512,57 @@
       </rPr>
       <t xml:space="preserve">/Library/Java/JavaVirtualMachines/jdk1.8.0_241.jdk/Contents/Home
 </t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">下載網址：https://docs.docker.com/docker-for-mac/install/
+Docker.dmg (已有提供檔案在 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>資料庫安裝檔(開發工具)\MAC_Oracle\Docker.dmg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>jdk-8u241-macosx-x64.dmg (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>已有提供檔案在 資料庫安裝檔(開發工具)\MAC_Oracle\jdk-8u241-macosx-x64.dmg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>)</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1281,8 +1324,8 @@
   </sheetPr>
   <dimension ref="A1:AMK11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1302,16 +1345,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="52.2" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="7">
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="9" t="s">
         <v>4</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1">
@@ -1320,10 +1363,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="55.8" customHeight="1">
@@ -1335,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="54" customHeight="1">
@@ -1347,7 +1390,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -1357,7 +1400,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" s="13"/>
       <c r="F7" s="5"/>
@@ -1368,10 +1411,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F8" s="5"/>
     </row>
@@ -1381,10 +1424,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -1394,10 +1437,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F10" s="5"/>
     </row>
@@ -1410,7 +1453,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1440,7 +1483,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>

--- a/MacBook_Oracle_database_11g.xlsx
+++ b/MacBook_Oracle_database_11g.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Oracle 安裝說明" sheetId="4" r:id="rId1"/>
     <sheet name="sqldeveloper 閃退問題" sheetId="5" r:id="rId2"/>
+    <sheet name="SQLDeveloper解決點擊首頁卡死" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Oracle 安裝說明'!$B$2:$D$11</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Mac Book</t>
   </si>
@@ -566,12 +567,15 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>這時不要用鼠標點擊歡迎頁內容，只用鼠標選中歡迎欄後按tab 直到選中啟動時選擇的按鈕，按空格取消勾選。然後選擇窗口，關閉歡迎頁。關閉程序後重新打開就不會出現歡迎頁面，這樣也不會卡死了</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial Unicode MS"/>
@@ -677,6 +681,20 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2D64B3"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF333333"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -713,7 +731,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -756,6 +774,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1027,6 +1051,91 @@
             <a:schemeClr val="accent1"/>
           </a:solidFill>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>84262</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1" descr="mac SQLDeveloper解決點擊首頁卡死現象"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="53340" y="1211580"/>
+          <a:ext cx="6736522" cy="3718560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>25434</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2" descr="mac SQLDeveloper解決點擊首頁卡死現象"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6972299" y="1249680"/>
+          <a:ext cx="6464335" cy="3733800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1324,8 +1433,8 @@
   </sheetPr>
   <dimension ref="A1:AMK11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1473,7 +1582,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1804,4 +1913,51 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:16" ht="93" customHeight="1">
+      <c r="A1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="17"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:P1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>